--- a/Verseny_Mester_Felépítés.xlsx
+++ b/Verseny_Mester_Felépítés.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamasungi/Desktop/Szakdolgozat_Saj-t_Verzi-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB382E1D-6CA6-D641-AFE5-69865C5C82F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064082DA-EA3C-A14F-A661-2B46FCEA3849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{75C93BD4-8C43-3A48-8D71-395D4A71F58D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Nyitóoldal</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Előfutamos (egyéni sport)</t>
+  </si>
+  <si>
+    <t>Csapat/Versenyző nevek megadása</t>
+  </si>
+  <si>
+    <t>Eredmények rögzítése (sportág specifikus)</t>
+  </si>
+  <si>
+    <t>└──-----</t>
   </si>
 </sst>
 </file>
@@ -445,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC896E2E-4A58-E742-83EC-C4AE8AE5AD7A}">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,7 +465,7 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
@@ -526,6 +535,30 @@
         <v>16</v>
       </c>
     </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
